--- a/data/trans_dic/P16A18-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Nacimiento-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -819,7 +819,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
